--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>DriverName</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t>D:\\\\New folder\geckodriver.exe</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>ths is first user</t>
+  </si>
+  <si>
+    <t>ths is second user</t>
+  </si>
+  <si>
+    <t>ths is third user</t>
+  </si>
+  <si>
+    <t>ths is fourth user</t>
+  </si>
+  <si>
+    <t>ths is fifth user</t>
+  </si>
+  <si>
+    <t>ths is sixthuser</t>
+  </si>
+  <si>
+    <t>ths is seventh user</t>
   </si>
 </sst>
 </file>
@@ -367,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -400,20 +430,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>DriverName</t>
   </si>
@@ -30,50 +30,53 @@
     <t>Password</t>
   </si>
   <si>
-    <t>FireFox</t>
-  </si>
-  <si>
     <t>D:\\\\New folder\geckodriver.exe</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>ths is first user</t>
-  </si>
-  <si>
-    <t>ths is second user</t>
-  </si>
-  <si>
-    <t>ths is third user</t>
-  </si>
-  <si>
-    <t>ths is fourth user</t>
-  </si>
-  <si>
-    <t>ths is fifth user</t>
-  </si>
-  <si>
-    <t>ths is sixthuser</t>
-  </si>
-  <si>
-    <t>ths is seventh user</t>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>amrithabhaargav@gmail.com</t>
+  </si>
+  <si>
+    <t>snigdhah</t>
+  </si>
+  <si>
+    <t>bhaargavamritha@gmail.com</t>
+  </si>
+  <si>
+    <t>snigdhubhaargav@gmail.com</t>
+  </si>
+  <si>
+    <t>snigdhah.bhaargav@gmail.com</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,13 +99,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,12 +408,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -417,10 +427,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -430,17 +440,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -448,91 +457,65 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId5"/>
 </worksheet>
 </file>
 
